--- a/public/planilha-modelo.xlsx
+++ b/public/planilha-modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marke\Documents\fatec\PI\projeto-cadastro-app-api\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C086FF6-DAC4-4E7B-9B67-27EE9B713D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841BCC13-708D-43A9-A586-AAD89EE16DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FE34EFF-E0FE-47BB-9C52-E28EBE0D87B2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>nome</t>
   </si>
@@ -65,36 +65,6 @@
   </si>
   <si>
     <t>NAO_ATIVO</t>
-  </si>
-  <si>
-    <t>MESTRE</t>
-  </si>
-  <si>
-    <t>PES_II_G</t>
-  </si>
-  <si>
-    <t>PES_I_C</t>
-  </si>
-  <si>
-    <t>Não há</t>
-  </si>
-  <si>
-    <t>more than words</t>
-  </si>
-  <si>
-    <t>creeeeed@gmail.com</t>
-  </si>
-  <si>
-    <t>http://lattes.com.br/zacariazzzz</t>
-  </si>
-  <si>
-    <t>Guns n roses</t>
-  </si>
-  <si>
-    <t>lancdoidohe@gmail.com</t>
-  </si>
-  <si>
-    <t>http://lattes.com.br/pearljam</t>
   </si>
 </sst>
 </file>
@@ -197,8 +167,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AEB65950-B606-49BC-AAD8-49A4AC3A589A}" name="Table3" displayName="Table3" ref="A1:H3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H3" xr:uid="{AEB65950-B606-49BC-AAD8-49A4AC3A589A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AEB65950-B606-49BC-AAD8-49A4AC3A589A}" name="Table3" displayName="Table3" ref="A1:H2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H2" xr:uid="{AEB65950-B606-49BC-AAD8-49A4AC3A589A}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A2804B44-D354-47C4-952E-2FE038056196}" name="nome" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{79B5AD1A-0CD9-45A8-B9FA-298FD2D9DD49}" name="email" dataDxfId="6" dataCellStyle="Hyperlink"/>
@@ -520,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36384106-3272-4DAE-9A6A-2197D4289B96}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,53 +536,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
-        <v>201</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>300</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -622,22 +547,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="Por favor, selecione um valor para o Status Atividade do professor." sqref="G2:G1048576" xr:uid="{A38C2858-7031-4AF2-A653-E5484545F6DD}">
       <formula1>"ATIVO,AFASTADO,LICENCA,NAO_ATIVO"</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="Esta célula precisa ser preenchida" sqref="A2:B1048576 D1:D1048576 F1:F1048576" xr:uid="{330F19B6-32AA-45FA-9FC1-9931D8260FA8}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="Esta célula precisa ser preenchida" sqref="F1:F1048576 D1:D1048576 A2:B1048576" xr:uid="{330F19B6-32AA-45FA-9FC1-9931D8260FA8}">
       <formula1>NOT(ISBLANK(A1))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERRO" error="Por favor, selecione um da lista para  titulação" sqref="C2:C1048576" xr:uid="{03108703-3CB6-43AB-A89C-8EC3DDB1F49C}">
       <formula1>"DOUTOR, MESTRE, ESPECIALISTA"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EE7D3792-DAE9-45B6-83A8-FB936BE1D13C}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{DDA10F15-22BA-4FCF-9B61-7A47DA48A06A}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{80BC6E95-93EA-4E1F-BC0E-0FB15EE46320}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{8992C946-5276-4A29-B819-7B3FE11C7CF0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
